--- a/Stocks/PERSISTENT.xlsx
+++ b/Stocks/PERSISTENT.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>587.30000000000007</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>644.83222849695107</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>639.7292060272357</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>50.267920844618615</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>10.950000000000045</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>12.850000000000023</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.85214007782101375</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>649.80118130316839</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-1.637619629616438</v>
       </c>
       <c r="Y67">
         <v>0.42731446071443679</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>623</v>
+      </c>
+      <c r="D83">
+        <v>635.1</v>
+      </c>
+      <c r="E83">
+        <v>608</v>
+      </c>
+      <c r="F83">
+        <v>630.1</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>624.4</v>
+      </c>
+      <c r="H83">
+        <v>621.7752395461298</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>629.39332750303288</v>
+      </c>
+      <c r="K83">
+        <v>611.12299994210616</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>60.690473505335284</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>22.100000000000023</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>27.100000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.81549815498154998</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>624.33282632198473</v>
+      </c>
+      <c r="W83">
+        <v>630.03481166704353</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-5.7019853450588016</v>
+      </c>
+      <c r="Y83">
+        <v>-7.0185381392413131</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>625</v>
+      </c>
+      <c r="D84">
+        <v>629</v>
+      </c>
+      <c r="E84">
+        <v>618.5</v>
+      </c>
+      <c r="F84">
+        <v>621.1</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>622.86666666666667</v>
+      </c>
+      <c r="H84">
+        <v>622.32095310639829</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>629.30592139124781</v>
+      </c>
+      <c r="K84">
+        <v>612.76233328830483</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>46.643281432675046</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>2.6000000000000227</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>10.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.24761904761904979</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>623.83546842629482</v>
+      </c>
+      <c r="W84">
+        <v>629.37297376578101</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-5.5375053394861879</v>
+      </c>
+      <c r="Y84">
+        <v>-6.7223315792902882</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>618.25</v>
+      </c>
+      <c r="D85">
+        <v>626.70000000000005</v>
+      </c>
+      <c r="E85">
+        <v>615.15</v>
+      </c>
+      <c r="F85">
+        <v>616</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>619.2833333333333</v>
+      </c>
+      <c r="H85">
+        <v>620.8021432198658</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>628.72682774874829</v>
+      </c>
+      <c r="K85">
+        <v>613.2929258909038</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>40.073330673024394</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.85000000000002274</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>11.550000000000068</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>7.3593073593075126E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>622.63001174532644</v>
+      </c>
+      <c r="W85">
+        <v>628.38238311646387</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-5.7523713711374285</v>
+      </c>
+      <c r="Y85">
+        <v>-6.5283395376597166</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>616</v>
+      </c>
+      <c r="D86">
+        <v>625</v>
+      </c>
+      <c r="E86">
+        <v>612.5</v>
+      </c>
+      <c r="F86">
+        <v>619.85</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>619.11666666666667</v>
+      </c>
+      <c r="H86">
+        <v>619.95940494326624</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>627.89864380458198</v>
+      </c>
+      <c r="K86">
+        <v>613.11672013736961</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>47.103996349069938</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>7.3500000000000227</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.58800000000000185</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>622.20231763066079</v>
+      </c>
+      <c r="W86">
+        <v>627.75035473746652</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-5.5480371068057366</v>
+      </c>
+      <c r="Y86">
+        <v>-6.3322790514889205</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>622.4</v>
+      </c>
+      <c r="D87">
+        <v>624.5</v>
+      </c>
+      <c r="E87">
+        <v>612</v>
+      </c>
+      <c r="F87">
+        <v>620</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>618.83333333333337</v>
+      </c>
+      <c r="H87">
+        <v>619.39636913829986</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>627.14338962578597</v>
+      </c>
+      <c r="K87">
+        <v>612.86856010684301</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>47.404510790831608</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>12.5</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.64</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>621.86349953363606</v>
+      </c>
+      <c r="W87">
+        <v>627.17625438654306</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-5.3127548529070054</v>
+      </c>
+      <c r="Y87">
+        <v>-6.1283742117725373</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>624.5</v>
+      </c>
+      <c r="D88">
+        <v>624.5</v>
+      </c>
+      <c r="E88">
+        <v>610.20000000000005</v>
+      </c>
+      <c r="F88">
+        <v>610.6</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>615.1</v>
+      </c>
+      <c r="H88">
+        <v>617.24818456915</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>626.55596970894464</v>
+      </c>
+      <c r="K88">
+        <v>612.27554674976682</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>32.805213278732488</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>14.299999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>2.797202797202647E-2</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V88">
+        <v>620.13065345153825</v>
+      </c>
+      <c r="W88">
+        <v>625.94838369124363</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-5.8177302397053836</v>
+      </c>
+      <c r="Y88">
+        <v>-6.0662454173591067</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>610.04999999999995</v>
+      </c>
+      <c r="D89">
+        <v>615.9</v>
+      </c>
+      <c r="E89">
+        <v>605.70000000000005</v>
+      </c>
+      <c r="F89">
+        <v>610</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>610.5333333333333</v>
+      </c>
+      <c r="H89">
+        <v>613.89075895124165</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>624.1879764402903</v>
+      </c>
+      <c r="K89">
+        <v>610.81431413870757</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>32.018446601248044</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>10.199999999999932</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.42156862745097873</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>618.57209138207088</v>
+      </c>
+      <c r="W89">
+        <v>624.76702193633673</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-6.1949305542658522</v>
+      </c>
+      <c r="Y89">
+        <v>-6.0919824447404558</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>610</v>
+      </c>
+      <c r="D90">
+        <v>612.4</v>
+      </c>
+      <c r="E90">
+        <v>598</v>
+      </c>
+      <c r="F90">
+        <v>598.4</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>602.93333333333339</v>
+      </c>
+      <c r="H90">
+        <v>608.41204614228752</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>621.56842612022581</v>
+      </c>
+      <c r="K90">
+        <v>607.96668877455033</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>20.270117391755711</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.39999999999997726</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>14.399999999999977</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>2.7777777777776243E-2</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>615.46869270790614</v>
+      </c>
+      <c r="W90">
+        <v>622.81390920031174</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-7.3452164924055978</v>
+      </c>
+      <c r="Y90">
+        <v>-6.3426292542734846</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>599.70000000000005</v>
+      </c>
+      <c r="D91">
+        <v>622.9</v>
+      </c>
+      <c r="E91">
+        <v>599.70000000000005</v>
+      </c>
+      <c r="F91">
+        <v>616.5</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>613.0333333333333</v>
+      </c>
+      <c r="H91">
+        <v>610.72268973781047</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>621.86433142684234</v>
+      </c>
+      <c r="K91">
+        <v>606.12964682465031</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>53.52814354133708</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>16.799999999999955</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>23.199999999999932</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.72413793103448287</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>615.62735536822822</v>
+      </c>
+      <c r="W91">
+        <v>622.34621222251087</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-6.7188568542826488</v>
+      </c>
+      <c r="Y91">
+        <v>-6.4178747742753171</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>617</v>
+      </c>
+      <c r="D92">
+        <v>619.70000000000005</v>
+      </c>
+      <c r="E92">
+        <v>610.20000000000005</v>
+      </c>
+      <c r="F92">
+        <v>610.20000000000005</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>613.36666666666667</v>
+      </c>
+      <c r="H92">
+        <v>612.04467820223863</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>621.38336888754407</v>
+      </c>
+      <c r="K92">
+        <v>607.03416975250582</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>45.305711567100381</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>9.5</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>614.79237761927004</v>
+      </c>
+      <c r="W92">
+        <v>621.44649279862119</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-6.6541151793511517</v>
+      </c>
+      <c r="Y92">
+        <v>-6.4651228552904838</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>619.70000000000005</v>
+      </c>
+      <c r="D93">
+        <v>619.70000000000005</v>
+      </c>
+      <c r="E93">
+        <v>606.25</v>
+      </c>
+      <c r="F93">
+        <v>609.29999999999995</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>611.75</v>
+      </c>
+      <c r="H93">
+        <v>611.89733910111931</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>621.00928691253432</v>
+      </c>
+      <c r="K93">
+        <v>606.85990980750455</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>44.096142477888698</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>3.0499999999999545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>13.450000000000045</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.22676579925650142</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>613.94739644707465</v>
+      </c>
+      <c r="W93">
+        <v>620.54675259131591</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-6.5993561442412556</v>
+      </c>
+      <c r="Y93">
+        <v>-6.4919695130806385</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>618</v>
+      </c>
+      <c r="D94">
+        <v>625</v>
+      </c>
+      <c r="E94">
+        <v>610.75</v>
+      </c>
+      <c r="F94">
+        <v>620.85</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>618.86666666666667</v>
+      </c>
+      <c r="H94">
+        <v>615.38200288389294</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>621.89611204308221</v>
+      </c>
+      <c r="K94">
+        <v>607.72437429472575</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>60.859299301795907</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>10.100000000000023</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>14.25</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.70877192982456305</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>615.00933545521707</v>
+      </c>
+      <c r="W94">
+        <v>620.5692153623296</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-5.5598799071125313</v>
+      </c>
+      <c r="Y94">
+        <v>-6.3055515918870171</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>626</v>
+      </c>
+      <c r="D95">
+        <v>626</v>
+      </c>
+      <c r="E95">
+        <v>612.15</v>
+      </c>
+      <c r="F95">
+        <v>619</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>619.05000000000007</v>
+      </c>
+      <c r="H95">
+        <v>617.21600144194645</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>622.80808714461955</v>
+      </c>
+      <c r="K95">
+        <v>608.70784667367559</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>57.41246817362623</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>6.8500000000000227</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>13.850000000000023</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.49458483754512717</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>615.62328384672219</v>
+      </c>
+      <c r="W95">
+        <v>620.45297718734219</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-4.8296933406199969</v>
+      </c>
+      <c r="Y95">
+        <v>-6.0103799416336132</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>620</v>
+      </c>
+      <c r="D96">
+        <v>624</v>
+      </c>
+      <c r="E96">
+        <v>610.4</v>
+      </c>
+      <c r="F96">
+        <v>619.9</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>618.1</v>
+      </c>
+      <c r="H96">
+        <v>617.65800072097318</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>623.07295666803748</v>
+      </c>
+      <c r="K96">
+        <v>609.08388074619211</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>58.830384690616256</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>9.5</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>13.600000000000023</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.69852941176470473</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>616.28124017799564</v>
+      </c>
+      <c r="W96">
+        <v>620.41201591420577</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-4.1307757362101256</v>
+      </c>
+      <c r="Y96">
+        <v>-5.6344591005489155</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>620</v>
+      </c>
+      <c r="D97">
+        <v>638.95000000000005</v>
+      </c>
+      <c r="E97">
+        <v>618</v>
+      </c>
+      <c r="F97">
+        <v>632.1</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>629.68333333333339</v>
+      </c>
+      <c r="H97">
+        <v>623.67066702715329</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>626.60118851958475</v>
+      </c>
+      <c r="K97">
+        <v>611.06524058037166</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>73.679261299965745</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>14.100000000000023</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>20.950000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.67303102625298294</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>618.71489553522713</v>
+      </c>
+      <c r="W97">
+        <v>621.27779251315349</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2.5628969779263571</v>
+      </c>
+      <c r="Y97">
+        <v>-5.020146676024404</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>630.5</v>
+      </c>
+      <c r="D98">
+        <v>648</v>
+      </c>
+      <c r="E98">
+        <v>630.5</v>
+      </c>
+      <c r="F98">
+        <v>633.25</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>637.25</v>
+      </c>
+      <c r="H98">
+        <v>630.46033351357664</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>631.35647995967702</v>
+      </c>
+      <c r="K98">
+        <v>615.38407600695575</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>74.752231858414618</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>17.5</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.15714285714285714</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>620.95106545288445</v>
+      </c>
+      <c r="W98">
+        <v>622.16462269736439</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-1.2135572444799436</v>
+      </c>
+      <c r="Y98">
+        <v>-4.2588287897155119</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>635</v>
+      </c>
+      <c r="D99">
+        <v>636.75</v>
+      </c>
+      <c r="E99">
+        <v>626.15</v>
+      </c>
+      <c r="F99">
+        <v>630.5</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>631.13333333333333</v>
+      </c>
+      <c r="H99">
+        <v>630.79683342345493</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>632.55503996863763</v>
+      </c>
+      <c r="K99">
+        <v>617.77650356096558</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>66.632849660576255</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4.3500000000000227</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>10.600000000000023</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.41037735849056728</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>622.42013230628686</v>
+      </c>
+      <c r="W99">
+        <v>622.78205805311518</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.36192574682831946</v>
+      </c>
+      <c r="Y99">
+        <v>-3.4794481811380735</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>626</v>
+      </c>
+      <c r="D100">
+        <v>639.79999999999995</v>
+      </c>
+      <c r="E100">
+        <v>626</v>
+      </c>
+      <c r="F100">
+        <v>633.65</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>633.15</v>
+      </c>
+      <c r="H100">
+        <v>631.9734167117274</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>634.16503108671816</v>
+      </c>
+      <c r="K100">
+        <v>619.60394721408431</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>71.123696932664799</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>7.6499999999999773</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>13.799999999999955</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.55434782608695665</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>624.14780425916581</v>
+      </c>
+      <c r="W100">
+        <v>623.58709078992149</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>0.56071346924431964</v>
+      </c>
+      <c r="Y100">
+        <v>-2.6714158510615951</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>635</v>
+      </c>
+      <c r="D101">
+        <v>642</v>
+      </c>
+      <c r="E101">
+        <v>633.6</v>
+      </c>
+      <c r="F101">
+        <v>640</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>638.5333333333333</v>
+      </c>
+      <c r="H101">
+        <v>635.25337502253035</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>635.90613528966969</v>
+      </c>
+      <c r="K101">
+        <v>622.71418116651</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>78.436722903040518</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>6.3999999999999773</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>8.3999999999999773</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.76190476190476131</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>626.58660360390957</v>
+      </c>
+      <c r="W101">
+        <v>624.80286184251986</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>1.783741761389706</v>
+      </c>
+      <c r="Y101">
+        <v>-1.7803843285713348</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>639.45000000000005</v>
+      </c>
+      <c r="D102">
+        <v>644</v>
+      </c>
+      <c r="E102">
+        <v>634.5</v>
+      </c>
+      <c r="F102">
+        <v>642</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>640.16666666666663</v>
+      </c>
+      <c r="H102">
+        <v>637.71002084459849</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>637.70477189196527</v>
+      </c>
+      <c r="K102">
+        <v>625.33325201839671</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N102">
+        <v>80.391782183624926</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>9.5</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.78947368421052633</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>628.95789535715426</v>
+      </c>
+      <c r="W102">
+        <v>626.07672392825918</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>2.8811714288950725</v>
+      </c>
+      <c r="Y102">
+        <v>-0.84807317707805319</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>642</v>
+      </c>
+      <c r="D103">
+        <v>644</v>
+      </c>
+      <c r="E103">
+        <v>621.54999999999995</v>
+      </c>
+      <c r="F103">
+        <v>636.70000000000005</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>634.08333333333337</v>
+      </c>
+      <c r="H103">
+        <v>635.89667708896593</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J103">
+        <v>639.10371147152853</v>
+      </c>
+      <c r="K103">
+        <v>624.49252934764183</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>61.824061774195485</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>15.150000000000091</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>22.450000000000045</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.6748329621380873</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>630.14898837913051</v>
+      </c>
+      <c r="W103">
+        <v>626.86363326690662</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>3.2853551122238969</v>
+      </c>
+      <c r="Y103">
+        <v>-2.1387519217663131E-2</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>631.54999999999995</v>
+      </c>
+      <c r="D104">
+        <v>660</v>
+      </c>
+      <c r="E104">
+        <v>631.54999999999995</v>
+      </c>
+      <c r="F104">
+        <v>652.9</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>648.15</v>
+      </c>
+      <c r="H104">
+        <v>642.02333854448295</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>643.74733114452215</v>
+      </c>
+      <c r="K104">
+        <v>626.06085615927702</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N104">
+        <v>79.720209446193962</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>21.350000000000023</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>28.450000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.75043936731107164</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>633.64914401311046</v>
+      </c>
+      <c r="W104">
+        <v>628.79225302491352</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>4.8568909881969375</v>
+      </c>
+      <c r="Y104">
+        <v>0.95426818226525711</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
